--- a/毕业设计相关/接口规范文档.xlsx
+++ b/毕业设计相关/接口规范文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="6915"/>
+    <workbookView windowWidth="20385" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>接口规范文档</t>
   </si>
@@ -54,7 +54,106 @@
     <t>人员类型</t>
   </si>
   <si>
-    <t xml:space="preserve">1表示学生 2表示教师 3表示科研人员 </t>
+    <t xml:space="preserve">1表示学生（只传学生信息） 2表示教师（只传教师信息） 3表示科研人员（只传科研人员信息） </t>
+  </si>
+  <si>
+    <t>&lt;csy021&gt;&lt;/csy021&gt;</t>
+  </si>
+  <si>
+    <t>登录账户</t>
+  </si>
+  <si>
+    <t>&lt;csy022&gt;&lt;/csy022&gt;</t>
+  </si>
+  <si>
+    <t>登录密码</t>
+  </si>
+  <si>
+    <t>&lt;csy040&gt;&lt;/csy040&gt;</t>
+  </si>
+  <si>
+    <t>学生学号</t>
+  </si>
+  <si>
+    <t>&lt;csy041&gt;&lt;/csy041&gt;</t>
+  </si>
+  <si>
+    <t>学生姓名</t>
+  </si>
+  <si>
+    <t>&lt;csy042&gt;&lt;/csy042&gt;</t>
+  </si>
+  <si>
+    <t>学生学院</t>
+  </si>
+  <si>
+    <t>&lt;csy043&gt;&lt;/csy043&gt;</t>
+  </si>
+  <si>
+    <t>学生班级</t>
+  </si>
+  <si>
+    <t>&lt;csy031&gt;&lt;/csy031&gt;</t>
+  </si>
+  <si>
+    <t>科研人员姓名</t>
+  </si>
+  <si>
+    <t>&lt;csy032&gt;&lt;/csy032&gt;</t>
+  </si>
+  <si>
+    <t>科研人员职称</t>
+  </si>
+  <si>
+    <t>&lt;csy051&gt;&lt;/csy051&gt;</t>
+  </si>
+  <si>
+    <t>教师姓名</t>
+  </si>
+  <si>
+    <t>&lt;csy052&gt;&lt;/csy052&gt;</t>
+  </si>
+  <si>
+    <t>教师学院</t>
+  </si>
+  <si>
+    <t>&lt;csy053&gt;&lt;/csy053&gt;</t>
+  </si>
+  <si>
+    <t>教师职称</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>&lt;statu&gt;&lt;statu&gt;</t>
+  </si>
+  <si>
+    <t>返回标记</t>
+  </si>
+  <si>
+    <t>error ：表示学院或者班级名称有误</t>
+  </si>
+  <si>
+    <t>20：插入用户表失败，用户名重复</t>
+  </si>
+  <si>
+    <t>41:插入学生表成功</t>
+  </si>
+  <si>
+    <t>40:插入学生表失败</t>
+  </si>
+  <si>
+    <t>31:插入科研人员表成功</t>
+  </si>
+  <si>
+    <t>30:插入科研人员表失败</t>
+  </si>
+  <si>
+    <t>51:插入教师表成功</t>
+  </si>
+  <si>
+    <t>50:插入教师表失败</t>
   </si>
 </sst>
 </file>
@@ -62,12 +161,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,21 +183,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,8 +258,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,11 +281,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,36 +301,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,40 +312,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,25 +334,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,157 +496,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,23 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,7 +541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,30 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,157 +586,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +784,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1175,7 +1273,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" ht="18" customHeight="1" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1196,88 +1294,475 @@
         <v>11</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="5:8">
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="5:8">
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="5:8">
+      <c r="I15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="5:8">
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="1"/>
+      <c r="I17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="9:10">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="9:10">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="9:10">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="84">
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:F8"/>
@@ -1286,9 +1771,12 @@
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="A1:L4"/>
     <mergeCell ref="A5:L6"/>
-    <mergeCell ref="A9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="E9:F17"/>
+    <mergeCell ref="E9:F20"/>
+    <mergeCell ref="E21:F33"/>
+    <mergeCell ref="G21:H33"/>
+    <mergeCell ref="I21:J33"/>
+    <mergeCell ref="A9:B33"/>
+    <mergeCell ref="C9:D33"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/毕业设计相关/接口规范文档.xlsx
+++ b/毕业设计相关/接口规范文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>接口规范文档</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>50:插入教师表失败</t>
+  </si>
+  <si>
+    <t>aa10</t>
+  </si>
+  <si>
+    <t>码表添加</t>
+  </si>
+  <si>
+    <t>statu</t>
+  </si>
+  <si>
+    <t>该码值已经存在</t>
+  </si>
+  <si>
+    <t>error:添加失败</t>
+  </si>
+  <si>
+    <t>success:添加成功</t>
   </si>
 </sst>
 </file>
@@ -161,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,13 +194,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -190,7 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,18 +222,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,14 +243,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,6 +257,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,32 +294,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,6 +314,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -334,12 +352,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,138 +514,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,18 +533,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,15 +551,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +611,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,15 +643,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,137 +663,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +808,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1135,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,10 +1331,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
@@ -1328,10 +1349,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1"/>
@@ -1344,10 +1365,10 @@
         <v>17</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
@@ -1360,10 +1381,10 @@
         <v>19</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
@@ -1376,10 +1397,10 @@
         <v>21</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1"/>
@@ -1392,10 +1413,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1"/>
@@ -1408,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1"/>
@@ -1424,10 +1445,10 @@
         <v>27</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
@@ -1436,14 +1457,14 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
@@ -1452,14 +1473,14 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1"/>
@@ -1468,32 +1489,32 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="1"/>
       <c r="K21" t="s">
         <v>38</v>
       </c>
@@ -1503,12 +1524,12 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" t="s">
         <v>39</v>
       </c>
@@ -1518,12 +1539,12 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" t="s">
         <v>40</v>
       </c>
@@ -1533,12 +1554,12 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" t="s">
         <v>41</v>
       </c>
@@ -1548,12 +1569,12 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" t="s">
         <v>42</v>
       </c>
@@ -1563,12 +1584,12 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" t="s">
         <v>43</v>
       </c>
@@ -1578,12 +1599,12 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" t="s">
         <v>44</v>
       </c>
@@ -1593,12 +1614,12 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" t="s">
         <v>45</v>
       </c>
@@ -1608,91 +1629,173 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="9:10">
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="9:10">
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="9:10">
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="9:10">
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="9:10">
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="9:10">
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="9:10">
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="82">
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
@@ -1742,27 +1845,19 @@
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:F8"/>
@@ -1777,6 +1872,12 @@
     <mergeCell ref="I21:J33"/>
     <mergeCell ref="A9:B33"/>
     <mergeCell ref="C9:D33"/>
+    <mergeCell ref="A34:B41"/>
+    <mergeCell ref="C34:D41"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="E39:F41"/>
+    <mergeCell ref="G39:H41"/>
+    <mergeCell ref="I39:J41"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
